--- a/pred_ohlcv/54_21/2019-10-15 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 STRAT ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>29074.24269203</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>31072.43882805</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>44461.34940280001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>56684.94296806001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>49214.57926806001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>49214.57926806001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>55200.09007639001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>26243.02020875003</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>23767.14140875003</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>23882.32780875003</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>23883.32780875003</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>23802.32780875003</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>23802.32780875003</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>23803.35460875003</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>24029.10050875003</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-15 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 STRAT ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>29074.24269203</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>31072.43882805</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>31072.43882805</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>44461.34940280001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>56684.94296806001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>54088.51806806001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>53994.32696806001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>49214.57926806001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>55200.09007639001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>57279.76126267002</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>56591.09906267002</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>57056.54278890002</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>57031.54278890002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>56342.83128890002</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>56352.83128890002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>52078.90618890002</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>48387.87705714002</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>26243.02020875003</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>23767.14140875003</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>23882.32780875003</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>23883.32780875003</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>23802.32780875003</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>23802.32780875003</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>23803.35460875003</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>24029.10050875003</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>24044.10050875003</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>24044.10050875003</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
